--- a/Pesquisa/bases/SI.xlsx
+++ b/Pesquisa/bases/SI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caio.hatanaka\PycharmProjects\Raspagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winicius.sabino\PycharmProjects\sondagem\Pesquisa\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="686">
   <si>
     <t>PRENORTE IND. DE ARTEFATOS DE CIMENTO LTDA</t>
   </si>
@@ -2088,6 +2088,9 @@
   </si>
   <si>
     <t>kennedy@maxvinil.com.br; wagner.cavalcanti@globalmax.com.br; fabiano.medeiros@globalmax.com.br;</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -2397,7 +2400,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2687,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3538,7 +3541,9 @@
       <c r="D59" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -3596,7 +3601,9 @@
       <c r="D63" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="E63" s="47"/>
+      <c r="E63" s="47" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -3668,7 +3675,9 @@
       <c r="D68" s="53" t="s">
         <v>676</v>
       </c>
-      <c r="E68" s="47"/>
+      <c r="E68" s="47" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -4096,7 +4105,9 @@
       <c r="D98" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="E98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
@@ -4231,7 +4242,9 @@
       <c r="D107" s="54" t="s">
         <v>677</v>
       </c>
-      <c r="E107" s="47"/>
+      <c r="E107" s="47" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
@@ -4458,7 +4471,9 @@
       <c r="D123" s="55" t="s">
         <v>576</v>
       </c>
-      <c r="E123" s="47"/>
+      <c r="E123" s="47" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
@@ -4575,7 +4590,9 @@
       <c r="D131" s="53" t="s">
         <v>678</v>
       </c>
-      <c r="E131" s="47"/>
+      <c r="E131" s="47" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
@@ -4671,7 +4688,9 @@
       <c r="D138" s="49" t="s">
         <v>679</v>
       </c>
-      <c r="E138" s="47"/>
+      <c r="E138" s="47" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
@@ -5004,7 +5023,9 @@
       <c r="D161" s="56" t="s">
         <v>680</v>
       </c>
-      <c r="E161" s="47"/>
+      <c r="E161" s="47" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">

--- a/Pesquisa/bases/SI.xlsx
+++ b/Pesquisa/bases/SI.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="685">
   <si>
     <t>PRENORTE IND. DE ARTEFATOS DE CIMENTO LTDA</t>
   </si>
@@ -1889,12 +1889,6 @@
     <t>financeiro@brindesparanagrafica.com.br</t>
   </si>
   <si>
-    <t>financeiro@augepersianas.com.br</t>
-  </si>
-  <si>
-    <t>debora@augepersianas.com.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">diretoria@fermat.com.br; contabilidade@fermat.com.br; fermattj@fermat.com.br; eng.thiago@fermat.com.br </t>
   </si>
   <si>
@@ -1946,9 +1940,6 @@
     <t>patricia@caibiense.com</t>
   </si>
   <si>
-    <t>eduardo.morais@kingspanisoeste.com.br</t>
-  </si>
-  <si>
     <t>katia@triol.com.br; marcos@triol.com.br</t>
   </si>
   <si>
@@ -2063,9 +2054,6 @@
     <t>elcamargo@grupopetropolis.com.br</t>
   </si>
   <si>
-    <t>hmolina@grupopetropolis.com.br; jhungaro@grupopetropolis.com.br; mrcampos@grupopetropolis.com.br;</t>
-  </si>
-  <si>
     <t>marinaldosantos@trael.com.br; masayukiuezato@trael.com.br; selecao@trael.com.br; trael@trael.com.br; rh@trael.com.br; sac01@trael.com.br; carolinefeniman@trael.com.br</t>
   </si>
   <si>
@@ -2091,6 +2079,15 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>financeiro@augepersianas.com.br;debora@augepersianas.com.br</t>
+  </si>
+  <si>
+    <t>auge@augepersianas.com.br</t>
+  </si>
+  <si>
+    <t>joel.lima@kingspanisoeste.com.br</t>
   </si>
 </sst>
 </file>
@@ -2690,8 +2687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2706,30 +2703,30 @@
   <sheetData>
     <row r="1" spans="1:5" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>670</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="45"/>
@@ -3542,7 +3539,7 @@
         <v>479</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3602,7 +3599,7 @@
         <v>486</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3649,7 +3646,7 @@
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>149</v>
@@ -3670,13 +3667,11 @@
         <v>151</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>675</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>676</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="D68" s="53"/>
       <c r="E68" s="47" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4106,7 +4101,7 @@
         <v>538</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4165,7 +4160,7 @@
         <v>546</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E102" s="1"/>
     </row>
@@ -4240,10 +4235,10 @@
         <v>555</v>
       </c>
       <c r="D107" s="54" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E107" s="47" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4472,7 +4467,7 @@
         <v>576</v>
       </c>
       <c r="E123" s="47" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4588,10 +4583,10 @@
         <v>589</v>
       </c>
       <c r="D131" s="53" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E131" s="47" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4686,10 +4681,10 @@
         <v>597</v>
       </c>
       <c r="D138" s="49" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E138" s="47" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4882,11 +4877,11 @@
       <c r="B152" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C152" s="22" t="s">
-        <v>619</v>
+      <c r="C152" s="21" t="s">
+        <v>683</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>618</v>
+        <v>682</v>
       </c>
       <c r="E152" s="1"/>
     </row>
@@ -4898,10 +4893,10 @@
         <v>333</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E153" s="1"/>
     </row>
@@ -4913,10 +4908,10 @@
         <v>335</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E154" s="1"/>
     </row>
@@ -4928,10 +4923,10 @@
         <v>337</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E155" s="1"/>
     </row>
@@ -4943,10 +4938,10 @@
         <v>339</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E156" s="1"/>
     </row>
@@ -4958,10 +4953,10 @@
         <v>341</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E157" s="1"/>
     </row>
@@ -4973,10 +4968,10 @@
         <v>343</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D158" s="27" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E158" s="1"/>
     </row>
@@ -4988,10 +4983,10 @@
         <v>345</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E159" s="1"/>
     </row>
@@ -5018,13 +5013,13 @@
         <v>349</v>
       </c>
       <c r="C161" s="48" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D161" s="56" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E161" s="47" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5035,10 +5030,10 @@
         <v>351</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D162" s="27" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E162" s="1"/>
     </row>
@@ -5050,7 +5045,7 @@
         <v>353</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>637</v>
+        <v>684</v>
       </c>
       <c r="E163" s="1"/>
     </row>
@@ -5062,10 +5057,10 @@
         <v>355</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E164" s="5"/>
     </row>
@@ -5077,10 +5072,10 @@
         <v>357</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E165" s="1"/>
     </row>
@@ -5092,10 +5087,10 @@
         <v>359</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E166" s="1"/>
     </row>
@@ -5107,10 +5102,10 @@
         <v>361</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D167" s="28" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E167" s="1"/>
     </row>
@@ -5122,10 +5117,10 @@
         <v>363</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E168" s="1"/>
     </row>
@@ -5137,7 +5132,7 @@
         <v>365</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E169" s="1"/>
     </row>
@@ -5149,7 +5144,7 @@
         <v>367</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E170" s="1"/>
     </row>
@@ -5161,7 +5156,7 @@
         <v>369</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E171" s="1"/>
     </row>
@@ -5186,10 +5181,10 @@
         <v>374</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E173" s="1"/>
     </row>
@@ -5201,10 +5196,10 @@
         <v>376</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E174" s="1"/>
     </row>
@@ -5216,10 +5211,10 @@
         <v>378</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E175" s="1"/>
     </row>
@@ -5231,10 +5226,10 @@
         <v>380</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E176" s="1"/>
     </row>
@@ -5246,10 +5241,10 @@
         <v>382</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E177" s="1"/>
     </row>
@@ -5285,10 +5280,10 @@
         <v>390</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E180" s="1"/>
     </row>
@@ -5312,10 +5307,10 @@
         <v>395</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E182" s="1"/>
     </row>
@@ -5339,10 +5334,10 @@
         <v>400</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D184" s="29" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E184" s="20"/>
     </row>
@@ -5390,10 +5385,10 @@
         <v>411</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E188" s="1"/>
     </row>
@@ -5541,9 +5536,10 @@
     <hyperlink ref="D184" r:id="rId128"/>
     <hyperlink ref="D188" r:id="rId129"/>
     <hyperlink ref="C2" r:id="rId130"/>
+    <hyperlink ref="C152" r:id="rId131"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId131"/>
+  <pageSetup orientation="portrait" r:id="rId132"/>
 </worksheet>
 </file>
 
@@ -5557,6 +5553,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100954B1559F8DF694A994E8EAD53CE208A" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ae1859765ed1fc361638a0103c8ad3e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e6e885a7-43d6-49bf-867f-8df496ac9445" xmlns:ns3="e94b490a-38a6-44a0-bd99-e18e91d00669" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="558b9e034e11fab44192ebbb1845ba84" ns2:_="" ns3:_="">
     <xsd:import namespace="e6e885a7-43d6-49bf-867f-8df496ac9445"/>
@@ -5779,12 +5781,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0394743-1F20-4F6F-9055-8B4930CFB7A3}">
   <ds:schemaRefs>
@@ -5794,6 +5790,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC74C101-2F56-4645-BAB8-26582ABDD41E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C03958E-FD15-4007-A7B3-A03B61574BAB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5810,13 +5815,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC74C101-2F56-4645-BAB8-26582ABDD41E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>